--- a/mcmaster_excel/Metric_Stainless_Steel_Tamper-Resistant_Button_Head_Hex_Drive_Screws.xlsx
+++ b/mcmaster_excel/Metric_Stainless_Steel_Tamper-Resistant_Button_Head_Hex_Drive_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,136 +434,108 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3/32"</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ASTM F879M</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>95635A650</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$11.91</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -574,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>95635A651</t>
+          <t>95635A650</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>$11.91</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -632,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -642,7 +614,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -672,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>95635A652</t>
+          <t>95635A651</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -690,7 +662,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -730,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>95635A653</t>
+          <t>95635A652</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -748,18 +720,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3/32"</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ASTM F879M</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>95635A653</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -770,54 +778,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5/32"</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ASTM F879M</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>95635A670</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>15.57</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -828,7 +800,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -863,17 +835,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>95635A671</t>
+          <t>95635A670</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -886,7 +858,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,12 +898,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>95635A672</t>
+          <t>95635A671</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -944,7 +916,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,12 +956,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>95635A673</t>
+          <t>95635A672</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1002,7 +974,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,12 +1014,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>95635A675</t>
+          <t>95635A673</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1060,7 +1032,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1100,12 +1072,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>95635A811</t>
+          <t>95635A675</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1118,18 +1090,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ASTM F879M</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>95635A811</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -1140,54 +1148,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5/32"</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ASTM F879M</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>95635A690</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1198,7 +1170,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1238,12 +1210,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>95635A691</t>
+          <t>95635A690</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1256,7 +1228,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1296,12 +1268,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>95635A692</t>
+          <t>95635A691</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1314,7 +1286,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1354,12 +1326,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>95635A694</t>
+          <t>95635A692</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1372,7 +1344,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1412,12 +1384,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>95635A696</t>
+          <t>95635A694</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1430,18 +1402,54 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ASTM F879M</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>95635A696</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1452,54 +1460,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5/32"</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>ASTM F879M</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>95635A710</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>14.87</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1510,7 +1482,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1550,12 +1522,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>95635A711</t>
+          <t>95635A710</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1568,7 +1540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1603,17 +1575,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>95635A713</t>
+          <t>95635A711</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1626,7 +1598,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1666,12 +1638,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>95635A715</t>
+          <t>95635A713</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1684,7 +1656,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1724,12 +1696,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>95635A716</t>
+          <t>95635A715</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1742,7 +1714,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1782,12 +1754,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>95635A812</t>
+          <t>95635A716</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1800,18 +1772,54 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5/32"</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ASTM F879M</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>95635A812</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1822,54 +1830,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ASTM F879M</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>95635A730</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>11.02</t>
-        </is>
-      </c>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1880,7 +1852,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1920,12 +1892,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>95635A732</t>
+          <t>95635A730</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1938,7 +1910,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1978,12 +1950,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>95635A734</t>
+          <t>95635A732</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1996,7 +1968,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2036,12 +2008,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>95635A735</t>
+          <t>95635A734</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>14.63</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2054,7 +2026,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2094,12 +2066,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>95635A736</t>
+          <t>95635A735</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>15.98</t>
+          <t>14.63</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2112,18 +2084,54 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ASTM F879M</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>95635A736</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -2134,54 +2142,18 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7/32"</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>ASTM F879M</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>95635A750</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -2192,7 +2164,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2232,12 +2204,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>95635A751</t>
+          <t>95635A750</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2250,7 +2222,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2290,16 +2262,74 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>95635A752</t>
+          <t>95635A751</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7/32"</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ASTM F879M</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>95635A752</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
